--- a/api/web/output.xlsx
+++ b/api/web/output.xlsx
@@ -7,8 +7,7 @@
     <workbookView activeTab="-1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Students" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>First Name</t>
   </si>
@@ -52,24 +51,6 @@
   </si>
   <si>
     <t>18-12-1980</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Production Year Start</t>
-  </si>
-  <si>
-    <t>Production Year End</t>
-  </si>
-  <si>
-    <t>308 GTB</t>
-  </si>
-  <si>
-    <t>360 Spider</t>
-  </si>
-  <si>
-    <t>488 GTB</t>
   </si>
 </sst>
 </file>
@@ -476,82 +457,4 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="23" bestFit="true" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>1975</v>
-      </c>
-      <c r="C2">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>1999</v>
-      </c>
-      <c r="C3">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>2015</v>
-      </c>
-      <c r="C4">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>